--- a/3. DB기획/밸런스DB데이터.xlsx
+++ b/3. DB기획/밸런스DB데이터.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="467">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,6 +1743,106 @@
   </si>
   <si>
     <t>사실상 mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1750,7 +1850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,6 +1867,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1794,12 +1902,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2134,14 +2243,14 @@
         <v>231</v>
       </c>
       <c r="G5">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D5,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D5,ImageName!$E$13:$E$28,0),1)</f>
         <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D5,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D5,ImageName!$E$38:$E$48,0),1)</f>
         <v>28</v>
       </c>
     </row>
@@ -2159,14 +2268,14 @@
         <v>134</v>
       </c>
       <c r="G6">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D6,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D6,ImageName!$E$13:$E$28,0),1)</f>
         <v>8</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D6,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D6,ImageName!$E$38:$E$48,0),1)</f>
         <v>29</v>
       </c>
     </row>
@@ -2184,14 +2293,14 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D7,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D7,ImageName!$E$13:$E$28,0),1)</f>
         <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D7,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D7,ImageName!$E$38:$E$48,0),1)</f>
         <v>30</v>
       </c>
     </row>
@@ -2209,14 +2318,14 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D8,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D8,ImageName!$E$13:$E$28,0),1)</f>
         <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D8,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D8,ImageName!$E$38:$E$48,0),1)</f>
         <v>31</v>
       </c>
     </row>
@@ -2231,14 +2340,14 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D9,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D9,ImageName!$E$13:$E$28,0),1)</f>
         <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D9,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D9,ImageName!$E$38:$E$48,0),1)</f>
         <v>32</v>
       </c>
     </row>
@@ -2256,14 +2365,14 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D10,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D10,ImageName!$E$13:$E$28,0),1)</f>
         <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D10,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D10,ImageName!$E$38:$E$48,0),1)</f>
         <v>33</v>
       </c>
     </row>
@@ -2281,14 +2390,14 @@
         <v>21</v>
       </c>
       <c r="G11">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D11,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D11,ImageName!$E$13:$E$28,0),1)</f>
         <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D11,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D11,ImageName!$E$38:$E$48,0),1)</f>
         <v>34</v>
       </c>
     </row>
@@ -2306,14 +2415,14 @@
         <v>25</v>
       </c>
       <c r="G12">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(D12,ImageName!$E$5:$E$20,0),1)</f>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(D12,ImageName!$E$13:$E$28,0),1)</f>
         <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12">
-        <f>INDEX(ImageName!$C$30:$G$40,MATCH(D12,ImageName!$E$30:$E$40,0),1)</f>
+        <f>INDEX(ImageName!$C$38:$G$48,MATCH(D12,ImageName!$E$38:$E$48,0),1)</f>
         <v>35</v>
       </c>
     </row>
@@ -2379,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D12"/>
+  <dimension ref="C1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2392,70 +2501,70 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+    </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>235</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2467,550 +2576,625 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N18"/>
+  <dimension ref="D1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M2" t="s">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" t="s">
+        <v>458</v>
+      </c>
+      <c r="N10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>313</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>304</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
         <v>305</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F12" t="s">
         <v>306</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H12" t="s">
         <v>330</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J12" t="s">
         <v>315</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L12" t="s">
         <v>307</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M12" t="s">
         <v>308</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N12" t="s">
         <v>339</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G13" t="s">
         <v>332</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H5,Building!$D$5:$D$20,0),1)</f>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I13,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K13" t="s">
         <v>310</v>
       </c>
-      <c r="K5">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J5,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L13">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K13,Resource!$D$13:$D$28,0),1)</f>
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>314</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G14" t="s">
         <v>333</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="I6">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H6,Building!$D$5:$D$20,0),1)</f>
+      <c r="J14">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I14,Building!$D$5:$D$20,0),1)</f>
         <v>4</v>
       </c>
-      <c r="K6" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J6,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L14" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K14,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>316</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G15" t="s">
         <v>334</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H7,Building!$D$5:$D$20,0),1)</f>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I15,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="K7" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J7,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L15" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K15,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G16" t="s">
         <v>335</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
         <v>318</v>
       </c>
-      <c r="I8">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H8,Building!$D$5:$D$20,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="K8" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J8,Resource!$D$5:$D$20,0),1)</f>
+      <c r="J16">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I16,Building!$D$5:$D$20,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K16,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>317</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G17" t="s">
         <v>336</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
         <v>319</v>
       </c>
-      <c r="I9">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H9,Building!$D$5:$D$20,0),1)</f>
+      <c r="J17">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I17,Building!$D$5:$D$20,0),1)</f>
         <v>7</v>
       </c>
-      <c r="K9" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J9,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L17" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K17,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>320</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G18" t="s">
         <v>337</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H10,Building!$D$5:$D$20,0),1)</f>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I18,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K18" t="s">
         <v>321</v>
       </c>
-      <c r="K10">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J10,Resource!$D$5:$D$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="L18">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K18,Resource!$D$13:$D$28,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
         <v>322</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G19" t="s">
         <v>337</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H11,Building!$D$5:$D$20,0),1)</f>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I19,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K19" t="s">
         <v>323</v>
       </c>
-      <c r="K11">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J11,Resource!$D$5:$D$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="L19">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K19,Resource!$D$13:$D$28,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>322</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G20" t="s">
         <v>333</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>325</v>
       </c>
-      <c r="I12">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H12,Building!$D$5:$D$20,0),1)</f>
+      <c r="J20">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I20,Building!$D$5:$D$20,0),1)</f>
         <v>5</v>
       </c>
-      <c r="K12" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J12,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L20" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K20,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>327</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G21" t="s">
         <v>333</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>328</v>
       </c>
-      <c r="I13">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H13,Building!$D$5:$D$20,0),1)</f>
+      <c r="J21">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I21,Building!$D$5:$D$20,0),1)</f>
         <v>6</v>
       </c>
-      <c r="K13" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J13,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L21" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K21,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>327</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G22" t="s">
         <v>338</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H14,Building!$D$5:$D$20,0),1)</f>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I22,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K22" t="s">
         <v>329</v>
       </c>
-      <c r="K14">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J14,Resource!$D$5:$D$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="L14">
+      <c r="L22">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K22,Resource!$D$13:$D$28,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>340</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G23" t="s">
         <v>331</v>
       </c>
-      <c r="G15">
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="I15" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H15,Building!$D$5:$D$20,0),1)</f>
+      <c r="J23" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I23,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J15,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L23" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K23,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O23" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>341</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G24" t="s">
         <v>333</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
         <v>343</v>
       </c>
-      <c r="I16">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H16,Building!$D$5:$D$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="K16" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J16,Resource!$D$5:$D$20,0),1)</f>
+      <c r="J24">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I24,Building!$D$5:$D$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K24,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>341</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G25" t="s">
         <v>344</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H17,Building!$D$5:$D$20,0),1)</f>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I25,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K25" t="s">
         <v>342</v>
       </c>
-      <c r="K17">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J17,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L25">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K25,Resource!$D$13:$D$28,0),1)</f>
         <v>6</v>
       </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
         <v>345</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G26" t="s">
         <v>346</v>
       </c>
-      <c r="G18">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="I18" t="e">
-        <f>INDEX(Building!$C$5:$I$20,MATCH(H18,Building!$D$5:$D$20,0),1)</f>
+      <c r="J26" t="e">
+        <f>INDEX(Building!$C$5:$I$20,MATCH(I26,Building!$D$5:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" t="e">
-        <f>INDEX(Resource!$C$5:$I$20,MATCH(J18,Resource!$D$5:$D$20,0),1)</f>
+      <c r="L26" t="e">
+        <f>INDEX(Resource!$C$13:$I$28,MATCH(K26,Resource!$D$13:$D$28,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O26" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3023,1163 +3207,1208 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F70"/>
+  <dimension ref="C1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>362</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>363</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D12" t="s">
         <v>440</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
         <v>366</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F12" t="s">
         <v>364</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F16" t="s">
         <v>367</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F17" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F18" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F19" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F20" t="s">
         <v>378</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F21" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>380</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>380</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>378</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F25" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F26" t="s">
         <v>380</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F27" t="s">
         <v>378</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>378</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>378</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F31" t="s">
         <v>378</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F32" t="s">
         <v>380</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F33" t="s">
         <v>380</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F34" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F35" t="s">
         <v>380</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F36" t="s">
         <v>378</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F37" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>378</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>378</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>378</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>380</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F43" t="s">
         <v>380</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F44" t="s">
         <v>378</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>378</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>406</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
         <v>406</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
         <v>378</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F49" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F50" t="s">
         <v>380</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F51" t="s">
         <v>380</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>7</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F52" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F53" t="s">
         <v>406</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F54" t="s">
         <v>406</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F55" t="s">
         <v>378</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>380</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
         <v>378</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
         <v>380</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F59" t="s">
         <v>380</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>5</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F60" t="s">
         <v>378</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
         <v>378</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
         <v>378</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>378</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>406</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>380</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>378</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>378</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>406</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>406</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64">
-        <v>4</v>
-      </c>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
         <v>378</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65">
+      <c r="G64" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
       <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
         <v>406</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66">
+      <c r="G66" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67">
         <v>4</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>406</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>378</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68">
-        <v>4</v>
-      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>380</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
         <v>378</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69">
-        <v>4</v>
-      </c>
+      <c r="G68" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
         <v>378</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>4</v>
-      </c>
+      <c r="G69" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
         <v>406</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>406</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>406</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>406</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>378</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>406</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4224,7 +4453,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <f>INDEX(Terrain!$C$4:$E$10,MATCH(D5,Terrain!$D$4:$D$12,0),1)</f>
+        <f>INDEX(Terrain!$C$13:$E$19,MATCH(D5,Terrain!$D$13:$D$21,0),1)</f>
         <v>3</v>
       </c>
     </row>
@@ -4236,7 +4465,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <f>INDEX(Terrain!$C$4:$E$10,MATCH(D6,Terrain!$D$4:$D$12,0),1)</f>
+        <f>INDEX(Terrain!$C$13:$E$19,MATCH(D6,Terrain!$D$13:$D$21,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4248,7 +4477,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <f>INDEX(Terrain!$C$4:$E$10,MATCH(D7,Terrain!$D$4:$D$12,0),1)</f>
+        <f>INDEX(Terrain!$C$13:$E$19,MATCH(D7,Terrain!$D$13:$D$21,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4260,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <f>INDEX(Terrain!$C$4:$E$10,MATCH(D8,Terrain!$D$4:$D$12,0),1)</f>
+        <f>INDEX(Terrain!$C$13:$E$19,MATCH(D8,Terrain!$D$13:$D$21,0),1)</f>
         <v>4</v>
       </c>
     </row>
@@ -4272,7 +4501,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <f>INDEX(Terrain!$C$4:$E$10,MATCH(D9,Terrain!$D$4:$D$12,0),1)</f>
+        <f>INDEX(Terrain!$C$13:$E$19,MATCH(D9,Terrain!$D$13:$D$21,0),1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4368,7 +4597,7 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E5,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E5,Resource!$D$13:$D$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="G5">
@@ -4399,7 +4628,7 @@
         <v>293</v>
       </c>
       <c r="F6">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E6,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E6,Resource!$D$13:$D$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="G6">
@@ -4430,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E7,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E7,Resource!$D$13:$D$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="G7">
@@ -4464,7 +4693,7 @@
         <v>43</v>
       </c>
       <c r="F8">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E8,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E8,Resource!$D$13:$D$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="G8">
@@ -4498,7 +4727,7 @@
         <v>46</v>
       </c>
       <c r="F9">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E9,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E9,Resource!$D$13:$D$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="G9">
@@ -4532,7 +4761,7 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E10,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E10,Resource!$D$13:$D$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="G10">
@@ -4566,7 +4795,7 @@
         <v>49</v>
       </c>
       <c r="F11">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E11,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E11,Resource!$D$13:$D$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="G11">
@@ -4597,7 +4826,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="e">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E12,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E12,Resource!$D$13:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="G12">
@@ -4631,7 +4860,7 @@
         <v>51</v>
       </c>
       <c r="F13">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E13,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E13,Resource!$D$13:$D$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="G13">
@@ -4665,7 +4894,7 @@
         <v>54</v>
       </c>
       <c r="F14">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E14,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E14,Resource!$D$13:$D$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="G14">
@@ -4696,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="e">
-        <f>INDEX(Resource!$C$5:$G$12,MATCH(E15,Resource!$D$5:$D$12,0),1)</f>
+        <f>INDEX(Resource!$C$13:$G$20,MATCH(E15,Resource!$D$13:$D$20,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="G15">
@@ -4793,271 +5022,272 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G21"/>
+  <dimension ref="C1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G12" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D6,Building!$D$5:$D$12,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F6,Resource!$D$5:$D$18,0),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D7,Building!$D$5:$D$12,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F7,Resource!$D$5:$D$18,0),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D8,Building!$D$5:$D$12,0),1)</f>
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F8,Resource!$D$5:$D$18,0),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D9,Building!$D$5:$D$12,0),1)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F9,Resource!$D$5:$D$18,0),1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D10,Building!$D$5:$D$12,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F10,Resource!$D$5:$D$18,0),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D11,Building!$D$5:$D$12,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F11,Resource!$D$5:$D$18,0),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D12,Building!$D$5:$D$12,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F12,Resource!$D$5:$D$18,0),1)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <f>INDEX(Building!$C$5:$H$12,MATCH(D13,Building!$D$5:$D$12,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G13">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F13,Resource!$D$5:$D$18,0),1)</f>
-        <v>6</v>
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F13,Resource!$D$13:$D$26,0),1)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <f>INDEX(Building!$C$5:$H$12,MATCH(D14,Building!$D$5:$D$12,0),1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F14,Resource!$D$5:$D$18,0),1)</f>
-        <v>11</v>
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F14,Resource!$D$13:$D$26,0),1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="e">
+        <v>81</v>
+      </c>
+      <c r="E15">
         <f>INDEX(Building!$C$5:$H$12,MATCH(D15,Building!$D$5:$D$12,0),1)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G15">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F15,Resource!$D$5:$D$18,0),1)</f>
-        <v>7</v>
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F15,Resource!$D$13:$D$26,0),1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D16,Building!$D$5:$D$12,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F16,Resource!$D$13:$D$26,0),1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D17,Building!$D$5:$D$12,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F17,Resource!$D$13:$D$26,0),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D18,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F18,Resource!$D$13:$D$26,0),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D19,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F19,Resource!$D$13:$D$26,0),1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D20,Building!$D$5:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F20,Resource!$D$13:$D$26,0),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D21,Building!$D$5:$D$12,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F21,Resource!$D$13:$D$26,0),1)</f>
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="e">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D22,Building!$D$5:$D$12,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F22,Resource!$D$13:$D$26,0),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="E16" t="e">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(D16,Building!$D$5:$D$12,0),1)</f>
+      <c r="E23" t="e">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D23,Building!$D$5:$D$12,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F23" t="s">
         <v>100</v>
       </c>
-      <c r="G16">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F16,Resource!$D$5:$D$18,0),1)</f>
+      <c r="G23">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F23,Resource!$D$13:$D$26,0),1)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5069,10 +5299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G23"/>
+  <dimension ref="C1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5081,257 +5311,258 @@
     <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>265</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
         <v>120</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="E14">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F22" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E16">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>135</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5342,10 +5573,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H12"/>
+  <dimension ref="C1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5357,126 +5588,126 @@
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>164</v>
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(D4,Resource!$D$5:$D$18,0),1)</f>
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F4,Resource!$D$5:$D$18,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(D5,Resource!$D$5:$D$18,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F5,Resource!$D$5:$D$18,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(D6,Resource!$D$5:$D$18,0),1)</f>
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6">
-        <f>INDEX(Resource!$C$5:$E$18,MATCH(F6,Resource!$D$5:$D$18,0),1)</f>
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" t="s">
-        <v>246</v>
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(D13,Resource!$D$13:$D$26,0),1)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F13,Resource!$D$13:$D$26,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(D14,Resource!$D$13:$D$26,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F14,Resource!$D$13:$D$26,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(D15,Resource!$D$13:$D$26,0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <f>INDEX(Resource!$C$13:$E$26,MATCH(F15,Resource!$D$13:$D$26,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5488,10 +5719,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F12"/>
+  <dimension ref="C1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5499,109 +5730,109 @@
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>234</v>
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4">
-        <f>INDEX(ImageName!$C$5:$G$40,MATCH(D4,ImageName!$E$5:$E$40,0),1)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5">
-        <f>INDEX(ImageName!$C$5:$G$40,MATCH(D5,ImageName!$E$5:$E$40,0),1)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6">
-        <f>INDEX(ImageName!$C$5:$G$40,MATCH(D6,ImageName!$E$5:$E$40,0),1)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7">
-        <f>INDEX(ImageName!$C$5:$G$40,MATCH(D7,ImageName!$E$5:$E$40,0),1)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13">
+        <f>INDEX(ImageName!$C$13:$G$48,MATCH(D13,ImageName!$E$13:$E$48,0),1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <f>INDEX(ImageName!$C$13:$G$48,MATCH(D14,ImageName!$E$13:$E$48,0),1)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15">
+        <f>INDEX(ImageName!$C$13:$G$48,MATCH(D15,ImageName!$E$13:$E$48,0),1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <f>INDEX(ImageName!$C$13:$G$48,MATCH(D16,ImageName!$E$13:$E$48,0),1)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5613,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I21"/>
+  <dimension ref="C1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5629,314 +5860,314 @@
     <col min="9" max="9" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>234</v>
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F12" t="s">
         <v>139</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H12" t="s">
         <v>140</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I12" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E5,Building!$D$5:$D$12,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G5,ImageName!$E$5:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E6,Building!$D$5:$D$12,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G6,ImageName!$E$5:$E$20,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E7,Building!$D$5:$D$12,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G7,ImageName!$E$5:$E$20,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E8,Building!$D$5:$D$12,0),1)</f>
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G8,ImageName!$E$5:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E9,Building!$D$5:$D$12,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G9,ImageName!$E$5:$E$20,0),1)</f>
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E10,Building!$D$5:$D$12,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G10,ImageName!$E$5:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E11,Building!$D$5:$D$12,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G11,ImageName!$E$5:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12">
-        <f>INDEX(Building!$C$5:$H$12,MATCH(E12,Building!$D$5:$D$12,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G12,ImageName!$E$5:$E$20,0),1)</f>
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <f>INDEX(Building!$C$5:$H$12,MATCH(E13,Building!$D$5:$D$12,0),1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H13">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G13,ImageName!$E$5:$E$20,0),1)</f>
-        <v>5</v>
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G13,ImageName!$E$13:$E$28,0),1)</f>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E14,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G14,ImageName!$E$13:$E$28,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E15,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G15,ImageName!$E$13:$E$28,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E16,Building!$D$5:$D$12,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G16,ImageName!$E$13:$E$28,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E17,Building!$D$5:$D$12,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G17,ImageName!$E$13:$E$28,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E18,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G18,ImageName!$E$13:$E$28,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E19,Building!$D$5:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G19,ImageName!$E$13:$E$28,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E20,Building!$D$5:$D$12,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G20,ImageName!$E$13:$E$28,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(E21,Building!$D$5:$D$12,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G21,ImageName!$E$13:$E$28,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G22" t="s">
         <v>190</v>
       </c>
-      <c r="H14">
-        <f>INDEX(ImageName!$C$5:$G$20,MATCH(G14,ImageName!$E$5:$E$20,0),1)</f>
+      <c r="H22">
+        <f>INDEX(ImageName!$C$13:$G$28,MATCH(G22,ImageName!$E$13:$E$28,0),1)</f>
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I22" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5948,10 +6179,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F46"/>
+  <dimension ref="C1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5960,564 +6191,564 @@
     <col min="6" max="6" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>272</v>
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>286</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>172</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F12" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" t="s">
-        <v>214</v>
-      </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48">
         <v>36</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E48" t="s">
         <v>291</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F48" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/3. DB기획/밸런스DB데이터.xlsx
+++ b/3. DB기획/밸런스DB데이터.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="457">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,11 +296,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목의 id니 비소모성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최대인구수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인구수</t>
+    <t>판매물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사를 제외한 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/soldier.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/money.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/meat.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/bread.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/happiness.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/sword.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/max_pop.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/pop.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/job_hunter.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/poor.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/sell_item.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/man.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지는 찾아서 파일로 만들어줘야겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/grass.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/dirt.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/stone.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/sand.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure/castle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/fight.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitkind_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말목장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue05.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/blue06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성의 주인이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 무기로 인해 더욱 강해진 병사다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가를 위해 싸우는 병사다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교를 통해 사람들을 행복하게 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기를 생산한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵을 생산한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사를 위한 무기를 만든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말을 관리한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 물건을 판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 못먹어 일을 하지 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기업글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/train.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/nextturn.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/meat.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/smile.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/bread.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기업글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/sword.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,11 +860,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>button/world.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교역소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/money.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/bed.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/castle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/church.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/horse_ranch.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/house.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/ranch.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/store.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/windmill.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure/armory.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure/armory.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingbutton/armory.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">description </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>view_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>building_id</t>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,11 +1012,749 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>consume_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitkind_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button/war.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요로움의 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권선징악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>훈련</t>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말목장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차를 지어 식량을 공급해 굶어죽는 인원이 없도록 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 더 먼곳을 둘러보기 위해 마구간을 지어 말을 훈련합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마구간을 선택해 월드맵으로 버튼을 터치합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막지역에 성과 상점을 지어 장사를 시작합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사를 1명 훈련합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막지역에 성과 상점 2채를 짓습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소를 짓고 병사를 9명 더 훈련시켜 10명을 만듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장을 짓고 병사를 10명 더 훈련시켜 20명을 만듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소를 짓고 병사를 9명 더 훈련시켜 10명을 만듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장을 짓고 병사를 10명 더 훈련시켜 20명을 만듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵으로 나가 전쟁을 겁니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병력을 강화하기 위해 무기고를 짓고 무기레벨을 2로 만듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병력을 강화하기 위해 무기고를 짓고 무기레벨을 3로 만듭니다</t>
+  </si>
+  <si>
+    <t>월드맵으로 나가 다시 전쟁을 겁니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디 왕권을 탈취하셨으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다. 반드시 성공하도록 하겠습니다.</t>
+  </si>
+  <si>
+    <t>제가 해드릴 수 있는건 여기까지입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 이만 가보도록 하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족이 문 밖으로 나간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">왕자님. 지금 병사는 커녕 사람들이 굶어 죽어가려 합니다. </t>
+  </si>
+  <si>
+    <t>이 마을을 일으키는게 가능할까요?</t>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분히 가능하다. 나만 믿어라.</t>
+  </si>
+  <si>
+    <t>부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 알겠습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕자님 덕분에 먹고 살 수 있게 되었습니다. </t>
+  </si>
+  <si>
+    <t>진심으로 감사합니다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아직 행복해하긴 이르네. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우린 저 폭군 카노르를 척결 시켜야만 한다.</t>
+  </si>
+  <si>
+    <t>네? 카노르 황제를요? 그게 가능할까요?</t>
+  </si>
+  <si>
+    <t>나만 믿어라. 충분히 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리가 싸우기 위해선 자금이 필요하다. </t>
+  </si>
+  <si>
+    <t>지금 즉시 말을 대령하라.</t>
+  </si>
+  <si>
+    <t>죄송한데.. 그.. 말이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네, 저희 마을은 원래 말이 없습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">카노르가 일으킨 쿠데타 이후에 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 마을이 통제하기 힘들다고 판단해,</t>
+  </si>
+  <si>
+    <t>저희 마을의 모든 말들을 싸그리 죽여버렸습니다.</t>
+  </si>
+  <si>
+    <t>그렇군. 내가 생각이 짧았네.</t>
+  </si>
+  <si>
+    <t>지금 당장 마구간을 건설하도록 하지</t>
+  </si>
+  <si>
+    <t>이제 말이 있으니 말을 타고 밖으로 나가보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디 카노르 황제님에게 걸리지 않으시길 바랍니다…</t>
+  </si>
+  <si>
+    <t>척박한 사막에서 장사를 하는 것이 제일 좋을 것이니,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막지역에 상점을 짓는 것이 좋겠구나.</t>
+  </si>
+  <si>
+    <t>현명하신 판단을 하시는 모습을 보니,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거의 성군이였던 제로스 1세 황제님이 떠오르는 군요.</t>
+  </si>
+  <si>
+    <t>아무리 그래도 아버지를 따라잡을 순 없지</t>
+  </si>
+  <si>
+    <t>이대로 있다보면 많은 돈을 벌 수 있게 될거야</t>
+  </si>
+  <si>
+    <t>귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도저히 폭군 카노르를 눈 뜨고 쳐다볼 수가 없습니다.</t>
+  </si>
+  <si>
+    <t>내일 바로 저희 병사들끼리 죽이러 가겠습니다.</t>
+  </si>
+  <si>
+    <t>진정하게. 자네의 맘 또한 내가 이해하겠으나</t>
+  </si>
+  <si>
+    <t>지금은 참아야 할 때라네.</t>
+  </si>
+  <si>
+    <t>지금 저희 마을을 되살리는 데 성공했습니다.</t>
+  </si>
+  <si>
+    <t>좋은 병사들을 훈련시키기만 한다면 충분히 승산은 있습니다.</t>
+  </si>
+  <si>
+    <t>저 또한 돕고 싶습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">병사를 키우는데는 고기가 필요하니 </t>
+  </si>
+  <si>
+    <t>제가 가지고 있는 고기 10개를 드리겠습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 빨리 병사를 훈련시켜 폭군 카노르를 척살하자꾸나 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가지 문제가 있습니다.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇인가?</t>
+  </si>
+  <si>
+    <t>그렇군.. 그럼 숙소도 지어야겠군</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아무리 그래도 10명으론 부족해.. </t>
+  </si>
+  <si>
+    <t>병사를 더 훈련시키려면 이들이 묵을 수 있는</t>
+  </si>
+  <si>
+    <t>숙소를 일단 지으셔야 할 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아무래도 우리가 고기를 직접 생산해야겠어. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금 당장 농장을 짓자 </t>
+  </si>
+  <si>
+    <t>이정도 했으면 충분한 것 같아. 이제 맞서 싸울때가 온거야</t>
+  </si>
+  <si>
+    <t>드디어 때가 왔도다</t>
+  </si>
+  <si>
+    <t>이제 그의 시대는 끝났습니다.</t>
+  </si>
+  <si>
+    <t>현재 20명의 병사가 대기중입니다.</t>
+  </si>
+  <si>
+    <t>지금 바로 공격 개시다.</t>
+  </si>
+  <si>
+    <t>이럴수가.. 우리의 패배라니..!</t>
+  </si>
+  <si>
+    <t>그들의 무기가 조금 달라보였습니다.</t>
+  </si>
+  <si>
+    <t>우리도 무기를 강화해야할 때입니다.</t>
+  </si>
+  <si>
+    <t>어떻게 하면 무기를 강화할 수 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간을 만드는 것입니다.</t>
+  </si>
+  <si>
+    <t>제가 그 방법을 알고 있으니 도와드리도록 하겠습니다.</t>
+  </si>
+  <si>
+    <t>다시 한번 싸워보도록 하자..!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드디어 우리가 해냈소! </t>
+  </si>
+  <si>
+    <t>이제 우리 손으로 이 나라를 평화롭게 만듭시다!</t>
+  </si>
+  <si>
+    <t>다들 고생 많으셨습니다.</t>
+  </si>
+  <si>
+    <t>chapter_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실상 mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[properties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교역소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campaign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campaign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign/noble.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign/prince.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign/woman.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족의 도움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 수용 인원을 8 증가시킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네, 살펴 들어가시죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,11 +1762,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동계산이 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가용인원</t>
+    <t>전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,1417 +1786,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말목장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈곤인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동계산이 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈곤인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목의 id니 비소모성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매물품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대인구수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인구수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매물품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사를 제외한 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈곤인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/soldier.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/money.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/meat.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/bread.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/happiness.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/sword.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/max_pop.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/pop.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/job_hunter.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/poor.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/sell_item.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/man.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terrain_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지는 찾아서 파일로 만들어줘야겠네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile/grass.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile/dirt.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile/stone.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile/sand.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure/castle.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사전투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource/fight.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitkind_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/blue01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/blue02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/blue03.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>말목장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unit/blue04.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/blue05.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit/blue06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성의 주인이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 무기로 인해 더욱 강해진 병사다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가를 위해 싸우는 병사다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terrain_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종교를 통해 사람들을 행복하게 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기를 생산한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵을 생산한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사를 위한 무기를 만든다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말을 관리한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 물건을 판다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥을 못먹어 일을 하지 못한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitKind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기업글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/train.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/nextturn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/meat.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/smile.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/bread.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기업글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/sword.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/world.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교역소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/money.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/bed.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildingButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/castle.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/church.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/horse_ranch.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/house.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/ranch.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/store.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/windmill.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure/armory.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure/armory.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingbutton/armory.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[properties]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">description </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[properties]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitkind_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[properties]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전쟁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button/war.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍요로움의 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권선징악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈곤해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈곤인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마구간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말목장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>war</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전쟁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전쟁준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전쟁 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>war</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍차를 지어 식량을 공급해 굶어죽는 인원이 없도록 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀 더 먼곳을 둘러보기 위해 마구간을 지어 말을 훈련합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마구간을 선택해 월드맵으로 버튼을 터치합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막지역에 성과 상점을 지어 장사를 시작합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사를 1명 훈련합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막지역에 성과 상점 2채를 짓습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소를 짓고 병사를 9명 더 훈련시켜 10명을 만듭니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장을 짓고 병사를 10명 더 훈련시켜 20명을 만듭니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소를 짓고 병사를 9명 더 훈련시켜 10명을 만듭니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장을 짓고 병사를 10명 더 훈련시켜 20명을 만듭니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵으로 나가 전쟁을 겁니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병력을 강화하기 위해 무기고를 짓고 무기레벨을 2로 만듭니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병력을 강화하기 위해 무기고를 짓고 무기레벨을 3로 만듭니다</t>
-  </si>
-  <si>
-    <t>월드맵으로 나가 다시 전쟁을 겁니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[data]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디 왕권을 탈취하셨으면 좋겠습니다.</t>
-  </si>
-  <si>
-    <t>주인공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감사합니다. 반드시 성공하도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>제가 해드릴 수 있는건 여기까지입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼, 이만 가보도록 하겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족이 문 밖으로 나간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">왕자님. 지금 병사는 커녕 사람들이 굶어 죽어가려 합니다. </t>
-  </si>
-  <si>
-    <t>이 마을을 일으키는게 가능할까요?</t>
-  </si>
-  <si>
-    <t>주인공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충분히 가능하다. 나만 믿어라.</t>
-  </si>
-  <si>
-    <t>부하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 알겠습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왕자님 덕분에 먹고 살 수 있게 되었습니다. </t>
-  </si>
-  <si>
-    <t>진심으로 감사합니다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아직 행복해하긴 이르네. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우린 저 폭군 카노르를 척결 시켜야만 한다.</t>
-  </si>
-  <si>
-    <t>네? 카노르 황제를요? 그게 가능할까요?</t>
-  </si>
-  <si>
-    <t>나만 믿어라. 충분히 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">우리가 싸우기 위해선 자금이 필요하다. </t>
-  </si>
-  <si>
-    <t>지금 즉시 말을 대령하라.</t>
-  </si>
-  <si>
-    <t>죄송한데.. 그.. 말이 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네, 저희 마을은 원래 말이 없습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">카노르가 일으킨 쿠데타 이후에 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희 마을이 통제하기 힘들다고 판단해,</t>
-  </si>
-  <si>
-    <t>저희 마을의 모든 말들을 싸그리 죽여버렸습니다.</t>
-  </si>
-  <si>
-    <t>그렇군. 내가 생각이 짧았네.</t>
-  </si>
-  <si>
-    <t>지금 당장 마구간을 건설하도록 하지</t>
-  </si>
-  <si>
-    <t>이제 말이 있으니 말을 타고 밖으로 나가보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디 카노르 황제님에게 걸리지 않으시길 바랍니다…</t>
-  </si>
-  <si>
-    <t>척박한 사막에서 장사를 하는 것이 제일 좋을 것이니,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막지역에 상점을 짓는 것이 좋겠구나.</t>
-  </si>
-  <si>
-    <t>현명하신 판단을 하시는 모습을 보니,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거의 성군이였던 제로스 1세 황제님이 떠오르는 군요.</t>
-  </si>
-  <si>
-    <t>아무리 그래도 아버지를 따라잡을 순 없지</t>
-  </si>
-  <si>
-    <t>이대로 있다보면 많은 돈을 벌 수 있게 될거야</t>
-  </si>
-  <si>
-    <t>귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도저히 폭군 카노르를 눈 뜨고 쳐다볼 수가 없습니다.</t>
-  </si>
-  <si>
-    <t>내일 바로 저희 병사들끼리 죽이러 가겠습니다.</t>
-  </si>
-  <si>
-    <t>진정하게. 자네의 맘 또한 내가 이해하겠으나</t>
-  </si>
-  <si>
-    <t>지금은 참아야 할 때라네.</t>
-  </si>
-  <si>
-    <t>지금 저희 마을을 되살리는 데 성공했습니다.</t>
-  </si>
-  <si>
-    <t>좋은 병사들을 훈련시키기만 한다면 충분히 승산은 있습니다.</t>
-  </si>
-  <si>
-    <t>저 또한 돕고 싶습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">병사를 키우는데는 고기가 필요하니 </t>
-  </si>
-  <si>
-    <t>제가 가지고 있는 고기 10개를 드리겠습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 빨리 병사를 훈련시켜 폭군 카노르를 척살하자꾸나 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가지 문제가 있습니다.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇인가?</t>
-  </si>
-  <si>
-    <t>그렇군.. 그럼 숙소도 지어야겠군</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아무리 그래도 10명으론 부족해.. </t>
-  </si>
-  <si>
-    <t>병사를 더 훈련시키려면 이들이 묵을 수 있는</t>
-  </si>
-  <si>
-    <t>숙소를 일단 지으셔야 할 것 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아무래도 우리가 고기를 직접 생산해야겠어. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">지금 당장 농장을 짓자 </t>
-  </si>
-  <si>
-    <t>이정도 했으면 충분한 것 같아. 이제 맞서 싸울때가 온거야</t>
-  </si>
-  <si>
-    <t>드디어 때가 왔도다</t>
-  </si>
-  <si>
-    <t>이제 그의 시대는 끝났습니다.</t>
-  </si>
-  <si>
-    <t>현재 20명의 병사가 대기중입니다.</t>
-  </si>
-  <si>
-    <t>지금 바로 공격 개시다.</t>
-  </si>
-  <si>
-    <t>이럴수가.. 우리의 패배라니..!</t>
-  </si>
-  <si>
-    <t>그들의 무기가 조금 달라보였습니다.</t>
-  </si>
-  <si>
-    <t>우리도 무기를 강화해야할 때입니다.</t>
-  </si>
-  <si>
-    <t>어떻게 하면 무기를 강화할 수 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장간을 만드는 것입니다.</t>
-  </si>
-  <si>
-    <t>제가 그 방법을 알고 있으니 도와드리도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>다시 한번 싸워보도록 하자..!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 우리가 해냈소! </t>
-  </si>
-  <si>
-    <t>이제 우리 손으로 이 나라를 평화롭게 만듭시다!</t>
-  </si>
-  <si>
-    <t>다들 고생 많으셨습니다.</t>
-  </si>
-  <si>
-    <t>chapter_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실상 mission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[properties]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[properties]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교역소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button_image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Campaign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Campaign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign/noble.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign/prince.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign/woman.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족의 도움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 수용 인원을 8 증가시킨다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
+    <t>최대인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,81 +2158,81 @@
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -2198,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G6">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(D6,ImageName!$E$6:$E$21,0),1)</f>
@@ -2226,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(D7,ImageName!$E$6:$E$21,0),1)</f>
@@ -2304,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -2317,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J10">
         <f>INDEX(ImageName!$C$31:$G$41,MATCH(D10,ImageName!$E$31:$E$41,0),1)</f>
@@ -2432,12 +2480,12 @@
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -2445,23 +2493,23 @@
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
@@ -2469,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
@@ -2485,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
@@ -2493,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2507,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2521,93 +2569,93 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
@@ -2618,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I6">
         <f>INDEX(Resource!$C$6:$I$21,MATCH(H6,Resource!$D$6:$D$21,0),1)</f>
@@ -2640,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
@@ -2651,16 +2699,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I7">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H7,Building!$D$6:$D$21,0),1)</f>
@@ -2673,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
@@ -2684,10 +2732,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -2696,11 +2744,14 @@
         <f>INDEX(Building!$C$6:$J$21,MATCH(H8,Building!$D$6:$D$21,0),1)</f>
         <v>#N/A</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
@@ -2711,16 +2762,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I9">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H9,Building!$D$6:$D$21,0),1)</f>
@@ -2733,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
@@ -2744,16 +2795,16 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I10">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H10,Building!$D$6:$D$21,0),1)</f>
@@ -2766,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.3">
@@ -2777,16 +2828,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I11">
         <f>INDEX(Resource!$C$6:$I$21,MATCH(H11,Resource!$D$6:$D$21,0),1)</f>
@@ -2799,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
@@ -2810,16 +2861,16 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I12">
         <f>INDEX(Resource!$C$6:$I$21,MATCH(H12,Resource!$D$6:$D$21,0),1)</f>
@@ -2832,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
@@ -2843,16 +2894,16 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I13">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H13,Building!$D$6:$D$21,0),1)</f>
@@ -2865,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
@@ -2876,16 +2927,16 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I14">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H14,Building!$D$6:$D$21,0),1)</f>
@@ -2898,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
@@ -2909,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I15">
         <f>INDEX(Resource!$C$6:$I$21,MATCH(H15,Resource!$D$6:$D$21,0),1)</f>
@@ -2931,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
@@ -2942,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2954,11 +3005,14 @@
         <f>INDEX(Building!$C$6:$J$21,MATCH(H16,Building!$D$6:$D$21,0),1)</f>
         <v>#N/A</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
@@ -2969,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I17">
         <f>INDEX(Building!$C$6:$J$21,MATCH(H17,Building!$D$6:$D$21,0),1)</f>
@@ -2991,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
@@ -3002,16 +3056,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I18">
         <f>INDEX(Resource!$C$6:$I$21,MATCH(H18,Resource!$D$6:$D$21,0),1)</f>
@@ -3024,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
@@ -3035,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3047,11 +3101,14 @@
         <f>INDEX(Building!$C$6:$J$21,MATCH(H19,Building!$D$6:$D$21,0),1)</f>
         <v>#N/A</v>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3063,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H71"/>
+  <dimension ref="C1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3078,75 +3135,75 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -3160,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H6">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F6,ImageName!$E$6:$E$50,0),1)</f>
@@ -3181,10 +3238,10 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H7">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F7,ImageName!$E$6:$E$50,0),1)</f>
@@ -3202,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H8">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F8,ImageName!$E$6:$E$50,0),1)</f>
@@ -3223,10 +3280,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H9">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F9,ImageName!$E$6:$E$50,0),1)</f>
@@ -3244,14 +3301,13 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" t="e">
-        <f>INDEX(ImageName!$C$6:$G$50,MATCH(F10,ImageName!$E$6:$E$50,0),1)</f>
-        <v>#N/A</v>
+        <v>441</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -3265,13 +3321,12 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H11">
-        <f>INDEX(ImageName!$C$6:$G$50,MATCH(F11,ImageName!$E$6:$E$50,0),1)</f>
         <v>39</v>
       </c>
     </row>
@@ -3286,10 +3341,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="H12">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F12,ImageName!$E$6:$E$50,0),1)</f>
@@ -3307,14 +3362,14 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="H13">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F13,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -3328,14 +3383,14 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H14">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F14,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
@@ -3343,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H15">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F15,ImageName!$E$6:$E$50,0),1)</f>
@@ -3367,13 +3422,13 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H16">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F16,ImageName!$E$6:$E$50,0),1)</f>
@@ -3388,17 +3443,17 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H17">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F17,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
@@ -3409,13 +3464,13 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H18">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F18,ImageName!$E$6:$E$50,0),1)</f>
@@ -3430,17 +3485,17 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="H19">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F19,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
@@ -3451,34 +3506,34 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H20">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F20,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H21">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F21,ImageName!$E$6:$E$50,0),1)</f>
@@ -3493,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H22">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F22,ImageName!$E$6:$E$50,0),1)</f>
@@ -3514,17 +3569,17 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H23">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F23,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
@@ -3535,17 +3590,17 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>358</v>
+        <v>342</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="H24">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F24,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
@@ -3556,17 +3611,17 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="H25">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F25,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
@@ -3577,13 +3632,13 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="H26">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F26,ImageName!$E$6:$E$50,0),1)</f>
@@ -3598,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H27">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F27,ImageName!$E$6:$E$50,0),1)</f>
@@ -3619,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H28">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F28,ImageName!$E$6:$E$50,0),1)</f>
@@ -3640,17 +3695,17 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="H29">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F29,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
@@ -3661,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="H30">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F30,ImageName!$E$6:$E$50,0),1)</f>
@@ -3679,16 +3734,16 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>365</v>
+        <v>340</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="H31">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F31,ImageName!$E$6:$E$50,0),1)</f>
@@ -3703,17 +3758,17 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H32">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F32,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
@@ -3721,20 +3776,20 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H33">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F33,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
@@ -3745,13 +3800,13 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="H34">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F34,ImageName!$E$6:$E$50,0),1)</f>
@@ -3766,17 +3821,17 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>369</v>
+        <v>340</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="H35">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F35,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
@@ -3787,13 +3842,13 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="H36">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F36,ImageName!$E$6:$E$50,0),1)</f>
@@ -3808,17 +3863,17 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>371</v>
+        <v>342</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="H37">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F37,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
@@ -3826,16 +3881,16 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H38">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F38,ImageName!$E$6:$E$50,0),1)</f>
@@ -3844,23 +3899,23 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H39">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F39,ImageName!$E$6:$E$50,0),1)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
@@ -3871,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>373</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="H40">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F40,ImageName!$E$6:$E$50,0),1)</f>
@@ -3892,17 +3947,17 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="H41">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F41,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
@@ -3913,13 +3968,13 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>377</v>
+        <v>340</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="H42">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F42,ImageName!$E$6:$E$50,0),1)</f>
@@ -3934,20 +3989,20 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>378</v>
+        <v>340</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="H43">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F43,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="27" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>3</v>
       </c>
@@ -3955,20 +4010,20 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>379</v>
+        <v>342</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="H44">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F44,ImageName!$E$6:$E$50,0),1)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" ht="27" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>3</v>
       </c>
@@ -3976,17 +4031,17 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>380</v>
+        <v>342</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="H45">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F45,ImageName!$E$6:$E$50,0),1)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
@@ -3997,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H46">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F46,ImageName!$E$6:$E$50,0),1)</f>
@@ -4018,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="H47">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F47,ImageName!$E$6:$E$50,0),1)</f>
@@ -4039,17 +4094,17 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>345</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="H48">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F48,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
@@ -4057,20 +4112,20 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H49">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F49,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
@@ -4081,17 +4136,17 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H50">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F50,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
@@ -4102,17 +4157,17 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H51">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F51,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
@@ -4123,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H52">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F52,ImageName!$E$6:$E$50,0),1)</f>
@@ -4144,17 +4199,17 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H53">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F53,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
@@ -4162,16 +4217,16 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H54">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F54,ImageName!$E$6:$E$50,0),1)</f>
@@ -4186,13 +4241,13 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>345</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>390</v>
+        <v>340</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="H55">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F55,ImageName!$E$6:$E$50,0),1)</f>
@@ -4207,13 +4262,13 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H56">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F56,ImageName!$E$6:$E$50,0),1)</f>
@@ -4225,16 +4280,16 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>345</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>392</v>
+        <v>340</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="H57">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F57,ImageName!$E$6:$E$50,0),1)</f>
@@ -4243,19 +4298,19 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H58">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F58,ImageName!$E$6:$E$50,0),1)</f>
@@ -4270,17 +4325,17 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H59">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F59,ImageName!$E$6:$E$50,0),1)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.3">
@@ -4291,17 +4346,17 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H60">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F60,ImageName!$E$6:$E$50,0),1)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.3">
@@ -4312,17 +4367,17 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H61">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F61,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
@@ -4330,16 +4385,16 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H62">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F62,ImageName!$E$6:$E$50,0),1)</f>
@@ -4354,17 +4409,17 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H63">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F63,ImageName!$E$6:$E$50,0),1)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.3">
@@ -4375,13 +4430,13 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>373</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="H64">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F64,ImageName!$E$6:$E$50,0),1)</f>
@@ -4396,17 +4451,17 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>400</v>
+        <v>368</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="H65">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F65,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.3">
@@ -4417,17 +4472,17 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H66">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F66,ImageName!$E$6:$E$50,0),1)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
@@ -4438,13 +4493,13 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>373</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>402</v>
+        <v>368</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="H67">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F67,ImageName!$E$6:$E$50,0),1)</f>
@@ -4456,20 +4511,20 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>345</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H68">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F68,ImageName!$E$6:$E$50,0),1)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.3">
@@ -4477,16 +4532,16 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H69">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F69,ImageName!$E$6:$E$50,0),1)</f>
@@ -4501,13 +4556,13 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>345</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>405</v>
+        <v>340</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="H70">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F70,ImageName!$E$6:$E$50,0),1)</f>
@@ -4522,16 +4577,37 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>406</v>
+        <v>340</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="H71">
         <f>INDEX(ImageName!$C$6:$G$50,MATCH(F71,ImageName!$E$6:$E$50,0),1)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>368</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H72">
+        <f>INDEX(ImageName!$C$6:$G$50,MATCH(F72,ImageName!$E$6:$E$50,0),1)</f>
         <v>37</v>
       </c>
     </row>
@@ -4558,28 +4634,28 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
@@ -4587,7 +4663,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
@@ -4661,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4678,24 +4754,24 @@
   <sheetData>
     <row r="1" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -4707,41 +4783,41 @@
         <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -4767,10 +4843,10 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
@@ -4795,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N6">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M6,ImageName!$E$24:$E$32,0),1)</f>
@@ -4820,7 +4896,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G7">
         <f>INDEX(Resource!$C$6:$G$13,MATCH(F7,Resource!$D$6:$D$13,0),1)</f>
@@ -4830,7 +4906,7 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -4839,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N7">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M7,ImageName!$E$24:$E$32,0),1)</f>
@@ -4877,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N8">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M8,ImageName!$E$24:$E$32,0),1)</f>
@@ -4915,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N9">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M9,ImageName!$E$24:$E$32,0),1)</f>
@@ -4953,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N10">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M10,ImageName!$E$24:$E$32,0),1)</f>
@@ -4991,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N11">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M11,ImageName!$E$24:$E$32,0),1)</f>
@@ -5032,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N12">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M12,ImageName!$E$24:$E$32,0),1)</f>
@@ -5061,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N13">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M13,ImageName!$E$24:$E$32,0),1)</f>
@@ -5105,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N14">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M14,ImageName!$E$24:$E$32,0),1)</f>
@@ -5126,9 +5202,9 @@
       <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="e">
         <f>INDEX(Resource!$C$6:$G$13,MATCH(F15,Resource!$D$6:$D$13,0),1)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -5143,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N15">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M15,ImageName!$E$24:$E$32,0),1)</f>
@@ -5155,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E16">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D16,Building!$D$6:$D$13,0),1)</f>
@@ -5172,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N16">
         <f>INDEX(ImageName!$C$24:$F$32,MATCH(M16,ImageName!$E$24:$E$32,0),1)</f>
@@ -5194,10 +5270,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G16"/>
+  <dimension ref="C1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5210,45 +5286,45 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
@@ -5256,14 +5332,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D6,Building!$D$6:$D$13,0),1)</f>
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F6,Resource!$D$6:$D$19,0),1)</f>
@@ -5275,14 +5351,14 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D7,Building!$D$6:$D$13,0),1)</f>
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F7,Resource!$D$6:$D$19,0),1)</f>
@@ -5294,14 +5370,14 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D8,Building!$D$6:$D$13,0),1)</f>
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F8,Resource!$D$6:$D$19,0),1)</f>
@@ -5313,14 +5389,14 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D9,Building!$D$6:$D$13,0),1)</f>
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F9,Resource!$D$6:$D$19,0),1)</f>
@@ -5332,14 +5408,14 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D10,Building!$D$6:$D$13,0),1)</f>
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F10,Resource!$D$6:$D$19,0),1)</f>
@@ -5351,14 +5427,14 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D11,Building!$D$6:$D$13,0),1)</f>
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F11,Resource!$D$6:$D$19,0),1)</f>
@@ -5370,14 +5446,14 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D12,Building!$D$6:$D$13,0),1)</f>
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F12,Resource!$D$6:$D$19,0),1)</f>
@@ -5389,14 +5465,14 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D13,Building!$D$6:$D$13,0),1)</f>
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F13,Resource!$D$6:$D$19,0),1)</f>
@@ -5408,14 +5484,14 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D14,Building!$D$6:$D$13,0),1)</f>
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F14,Resource!$D$6:$D$19,0),1)</f>
@@ -5427,18 +5503,18 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="e">
+        <v>442</v>
+      </c>
+      <c r="E15">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D15,Building!$D$6:$D$13,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="e">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F15,Resource!$D$6:$D$19,0),1)</f>
         <v>#N/A</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15">
-        <f>INDEX(Resource!$C$6:$E$19,MATCH(F15,Resource!$D$6:$D$19,0),1)</f>
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
@@ -5446,18 +5522,113 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="e">
+        <v>443</v>
+      </c>
+      <c r="E16">
         <f>INDEX(Building!$C$6:$I$13,MATCH(D16,Building!$D$6:$D$13,0),1)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="G16">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F16,Resource!$D$6:$D$19,0),1)</f>
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17">
+        <f>INDEX(Building!$C$6:$I$13,MATCH(D17,Building!$D$6:$D$13,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>450</v>
+      </c>
+      <c r="G17">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F17,Resource!$D$6:$D$19,0),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18">
+        <f>INDEX(Building!$C$6:$I$13,MATCH(D18,Building!$D$6:$D$13,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>448</v>
+      </c>
+      <c r="G18">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F18,Resource!$D$6:$D$19,0),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19">
+        <f>INDEX(Building!$C$6:$I$13,MATCH(D19,Building!$D$6:$D$13,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F19,Resource!$D$6:$D$19,0),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20">
+        <f>INDEX(Building!$C$6:$I$13,MATCH(D20,Building!$D$6:$D$13,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>449</v>
+      </c>
+      <c r="G20">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F20,Resource!$D$6:$D$19,0),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21">
+        <f>INDEX(Building!$C$6:$I$13,MATCH(D21,Building!$D$6:$D$13,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21">
+        <f>INDEX(Resource!$C$6:$E$19,MATCH(F21,Resource!$D$6:$D$19,0),1)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +5643,7 @@
   <dimension ref="C1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5484,43 +5655,43 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
         <v>238</v>
       </c>
-      <c r="D2" t="s">
-        <v>243</v>
-      </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -5534,7 +5705,7 @@
         <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
@@ -5548,7 +5719,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
@@ -5562,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
@@ -5576,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
@@ -5590,7 +5761,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
@@ -5604,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
@@ -5618,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
@@ -5626,13 +5797,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
@@ -5640,13 +5811,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
@@ -5654,16 +5825,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
@@ -5671,16 +5842,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
@@ -5688,16 +5859,16 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
@@ -5705,16 +5876,16 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
@@ -5722,13 +5893,13 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5741,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5756,54 +5927,54 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -5811,14 +5982,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(D6,Resource!$D$6:$D$19,0),1)</f>
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F6,Resource!$D$6:$D$19,0),1)</f>
@@ -5840,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F7,Resource!$D$6:$D$19,0),1)</f>
@@ -5855,14 +6026,14 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(D8,Resource!$D$6:$D$19,0),1)</f>
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <f>INDEX(Resource!$C$6:$E$19,MATCH(F8,Resource!$D$6:$D$19,0),1)</f>
@@ -5895,45 +6066,45 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -5941,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <f>INDEX(ImageName!$C$6:$G$41,MATCH(D6,ImageName!$E$6:$E$41,0),1)</f>
@@ -5956,10 +6127,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7">
         <f>INDEX(ImageName!$C$6:$G$41,MATCH(D7,ImageName!$E$6:$E$41,0),1)</f>
@@ -5974,7 +6145,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <f>INDEX(ImageName!$C$6:$G$41,MATCH(D8,ImageName!$E$6:$E$41,0),1)</f>
@@ -5989,7 +6160,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <f>INDEX(ImageName!$C$6:$G$41,MATCH(D9,ImageName!$E$6:$E$41,0),1)</f>
@@ -6023,63 +6194,63 @@
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
@@ -6090,21 +6261,21 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F6">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E6,Building!$D$6:$D$13,0),1)</f>
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G6,ImageName!$E$6:$E$21,0),1)</f>
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
@@ -6115,21 +6286,21 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F7">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E7,Building!$D$6:$D$13,0),1)</f>
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H7">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G7,ImageName!$E$6:$E$21,0),1)</f>
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
@@ -6140,21 +6311,21 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F8">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E8,Building!$D$6:$D$13,0),1)</f>
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H8">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G8,ImageName!$E$6:$E$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
@@ -6165,21 +6336,21 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E9,Building!$D$6:$D$13,0),1)</f>
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H9">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G9,ImageName!$E$6:$E$21,0),1)</f>
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
@@ -6190,21 +6361,21 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E10,Building!$D$6:$D$13,0),1)</f>
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H10">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G10,ImageName!$E$6:$E$21,0),1)</f>
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
@@ -6215,21 +6386,21 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F11">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E11,Building!$D$6:$D$13,0),1)</f>
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H11">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G11,ImageName!$E$6:$E$21,0),1)</f>
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -6240,21 +6411,21 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E12,Building!$D$6:$D$13,0),1)</f>
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H12">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G12,ImageName!$E$6:$E$21,0),1)</f>
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
@@ -6265,21 +6436,21 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F13">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E13,Building!$D$6:$D$13,0),1)</f>
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H13">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G13,ImageName!$E$6:$E$21,0),1)</f>
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
@@ -6290,21 +6461,21 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F14">
         <f>INDEX(Building!$C$6:$I$13,MATCH(E14,Building!$D$6:$D$13,0),1)</f>
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H14">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G14,ImageName!$E$6:$E$21,0),1)</f>
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -6315,14 +6486,14 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H15">
         <f>INDEX(ImageName!$C$6:$G$21,MATCH(G15,ImageName!$E$6:$E$21,0),1)</f>
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6349,54 +6520,54 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -6404,13 +6575,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -6418,13 +6589,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
@@ -6432,13 +6603,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -6446,13 +6617,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
@@ -6460,13 +6631,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
@@ -6474,13 +6645,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
         <v>174</v>
       </c>
-      <c r="E11" t="s">
-        <v>179</v>
-      </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
@@ -6488,13 +6659,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
@@ -6502,13 +6673,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
@@ -6516,7 +6687,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -6530,7 +6701,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -6544,10 +6715,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -6558,7 +6729,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -6572,7 +6743,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -6586,7 +6757,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -6600,13 +6771,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
@@ -6614,13 +6785,13 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
@@ -6628,13 +6799,13 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
@@ -6642,13 +6813,13 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
@@ -6656,13 +6827,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
@@ -6670,13 +6841,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
@@ -6684,13 +6855,13 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
@@ -6698,13 +6869,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
@@ -6712,13 +6883,13 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
@@ -6726,13 +6897,13 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
@@ -6740,13 +6911,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
@@ -6754,13 +6925,13 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
@@ -6768,13 +6939,13 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
@@ -6782,13 +6953,13 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
@@ -6796,13 +6967,13 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
@@ -6810,13 +6981,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
@@ -6824,13 +6995,13 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
@@ -6838,13 +7009,13 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
@@ -6852,13 +7023,13 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
@@ -6866,13 +7037,13 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
@@ -6880,13 +7051,13 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
@@ -6894,13 +7065,13 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
@@ -6908,13 +7079,13 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E42" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
@@ -6922,13 +7093,13 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E43" t="s">
+        <v>426</v>
+      </c>
+      <c r="F43" t="s">
         <v>428</v>
-      </c>
-      <c r="E43" t="s">
-        <v>431</v>
-      </c>
-      <c r="F43" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
@@ -6936,13 +7107,13 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E44" t="s">
+        <v>435</v>
+      </c>
+      <c r="F44" t="s">
         <v>429</v>
-      </c>
-      <c r="E44" t="s">
-        <v>440</v>
-      </c>
-      <c r="F44" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
